--- a/CashFlow/KMX_cashflow.xlsx
+++ b/CashFlow/KMX_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10661000000.0</v>
+        <v>-323318000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>10350000000.0</v>
+        <v>-97631000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7492176000.0</v>
+        <v>-220209000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>4613569000.0</v>
+        <v>651713000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>2682881000.0</v>
+        <v>-326961000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-257874000.0</v>
